--- a/project/static/import/templates/Lesion.xlsx
+++ b/project/static/import/templates/Lesion.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" dateCompatibility="false"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t xml:space="preserve">deportista</t>
+  </si>
   <si>
     <t xml:space="preserve">fecha</t>
   </si>
@@ -32,15 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">gravedad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">deportista</t>
-  </si>
-  <si>
-    <t xml:space="preserve">esguince</t>
-  </si>
-  <si>
-    <t xml:space="preserve">leve</t>
   </si>
 </sst>
 </file>
@@ -51,11 +45,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="7">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -73,10 +68,26 @@
       <family val="0"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+      <u val="single"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +132,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -130,7 +141,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -151,56 +170,47 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="6.98"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.98"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="11.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="8.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="9.47"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>44195</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="0" t="n">
-        <v>37567406</v>
-      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/project/static/import/templates/Lesion.xlsx
+++ b/project/static/import/templates/Lesion.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="lesiones" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Lesiones" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -173,10 +173,10 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A:A"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.88"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="10.88"/>
